--- a/biology/Médecine/France_ADOT/France_ADOT.xlsx
+++ b/biology/Médecine/France_ADOT/France_ADOT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">France ADOT (fédération des Associations pour le Don d'Organes et de Tissus humains) est une fédération d’associations françaises qui œuvrent dans chaque département pour informer et sensibiliser à la cause du Don d’organes, de tissus et de moelle osseuse.
-L'association fédère 67 antennes départementales réparties un peu partout sur le territoire français[1].
+L'association fédère 67 antennes départementales réparties un peu partout sur le territoire français.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée le 30 juillet 1969 à l'initiative de l'immunologue et Prix Nobel de Médecine, Jean Dausset, par le docteur en pharmacie Maurice Magniez et par le président de la FFDSB Pierre Grange, l'association France ADOT, d'abord nommée FFDOT (Fédération Française Don Organes Tissus humains) puis renommée en 1990, a été reconnue d'utilité publique en février 1978[2]. Cette reconnaissance fut confirmée le 11 avril 2005.
-Depuis 2000, elle est présidée par Marie-Claire Paulet[3].
-À la suite de la mort de Grégory Lemarchal le 30 avril 2007, l'association note une recrudescence exceptionnelle des demandes de cartes de donneurs avec 53 411 demandes pour le seul mois de mai 2007, soit l'équivalent de toute l'année 2006 (54 130 demandes)[4], puis 44 755 le mois suivant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée le 30 juillet 1969 à l'initiative de l'immunologue et Prix Nobel de Médecine, Jean Dausset, par le docteur en pharmacie Maurice Magniez et par le président de la FFDSB Pierre Grange, l'association France ADOT, d'abord nommée FFDOT (Fédération Française Don Organes Tissus humains) puis renommée en 1990, a été reconnue d'utilité publique en février 1978. Cette reconnaissance fut confirmée le 11 avril 2005.
+Depuis 2000, elle est présidée par Marie-Claire Paulet.
+À la suite de la mort de Grégory Lemarchal le 30 avril 2007, l'association note une recrudescence exceptionnelle des demandes de cartes de donneurs avec 53 411 demandes pour le seul mois de mai 2007, soit l'équivalent de toute l'année 2006 (54 130 demandes), puis 44 755 le mois suivant.
 En clair : 
 1969 : Création de la Fédération des Associations pour le Don d’Organes et de Tissus humains.
 1970 : France ADOT propose aux citoyens la carte de donneur d’organes.
@@ -553,7 +567,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Promouvoir les dons d'organes et de tissus dans le respect de l'éthique et de la loi : anonymat, gratuité, volontariat.
 Promouvoir le don de moelle osseuse, constituer et entretenir un panel de plus de 150 000 donneurs de moelle osseuse.
@@ -589,12 +605,14 @@
           <t>Quelques chiffres...</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 1er janvier 2023, la France comptait 10 810 patients en liste d'attente active (donc immédiatement éligibles à une greffe d’organe), tous organes confondus. En 2022, il y avait 20 000 personnes sur liste d'attente, active ou inactive[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 1er janvier 2023, la France comptait 10 810 patients en liste d'attente active (donc immédiatement éligibles à une greffe d’organe), tous organes confondus. En 2022, il y avait 20 000 personnes sur liste d'attente, active ou inactive.
 Sur les personnes inscrites sur les listes d'attente pour une greffe, 5 494 greffes ont été réalisées (dont 533 à partir de donneurs vivants) en 2022 contre 5 276 en 2021 soit une augmentation de 4 %.
-Sur l'année 2022, l’activité de recensement des personnes décédées par mort encéphalique fut recensée à 2 984 donneurs contre 2 812 en 2021 soit une augmentation de 6,1 %. Le taux d’opposition brut global des patients en mort encéphalique a très sensiblement diminué à 33 % contre 33,7 % en 2021 et 33 % en 2020[6].
-Les chiffres de 2020 annoncaient malheureusement 993 personnes décédées faute d'organes[7].
+Sur l'année 2022, l’activité de recensement des personnes décédées par mort encéphalique fut recensée à 2 984 donneurs contre 2 812 en 2021 soit une augmentation de 6,1 %. Le taux d’opposition brut global des patients en mort encéphalique a très sensiblement diminué à 33 % contre 33,7 % en 2021 et 33 % en 2020.
+Les chiffres de 2020 annoncaient malheureusement 993 personnes décédées faute d'organes.
 </t>
         </is>
       </c>
@@ -623,9 +641,11 @@
           <t>La carte de donneur d'organes et de tissus humains</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">France ADOT a mis en place une Carte de donneur d'Organes et de Tissus qui permet à chacun de manifester son engagement en faveur du don d'organe[8]. Cette carte n'a pas de valeur juridique mais est un excellent moyen de manifester à ses proches sa volonté de donner ses organes après sa mort.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">France ADOT a mis en place une Carte de donneur d'Organes et de Tissus qui permet à chacun de manifester son engagement en faveur du don d'organe. Cette carte n'a pas de valeur juridique mais est un excellent moyen de manifester à ses proches sa volonté de donner ses organes après sa mort.
 France ADOT peut également accompagner gratuitement les personnes qui s'opposent au don d'organe en les aidant à s'inscrire sur le registre national du refus.
 </t>
         </is>
